--- a/BOM/quad-001-bom.xlsx
+++ b/BOM/quad-001-bom.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F33B005-955C-414A-8DC6-23E8CDF67ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30A0947-63F1-43ED-84FC-BEE587D6D838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Part</t>
   </si>
@@ -48,25 +48,40 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Young Rc F450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0776WLHX7?ref=ppx_yo2ov_dt_b_fed_asin_title</t>
+  </si>
+  <si>
+    <t>Drone Frame Kit 4-Axis Airframe 450mm Quadcopter Frame Kit with Landing Skid Gear</t>
+  </si>
+  <si>
     <t>Motor</t>
   </si>
   <si>
     <t>3112 900KV</t>
   </si>
   <si>
-    <t>https://amazon.com/...</t>
-  </si>
-  <si>
-    <t>Efficient 10" prop</t>
+    <t>https://www.amazon.com/dp/B0F7H2DN7J?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>3112 900KV Brushless Motor for Drone – High-Power BLDC Motor, 5mm Shaft, 1545W Max, 4050g Thrust, FPV Drone Motors, Brushless RC Motor for Quadcopter, Hexacopter, RC Plane</t>
   </si>
   <si>
     <t>ESC</t>
   </si>
   <si>
-    <t>HGLRC SPECTER 60A</t>
-  </si>
-  <si>
-    <t>4-in-1 ESC</t>
+    <t>HGLRC SPECTER 60A 4in1 ESC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B0CW64F6W4?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>3-6S BL32 128K with Heat Sink for FPV Racing Drone Freestyle</t>
   </si>
   <si>
     <t>Flight Controller</t>
@@ -85,10 +100,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,6 +121,12 @@
       <color rgb="FF1D1D1D"/>
       <name val="Helvetica Neue"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -240,28 +269,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
@@ -462,8 +501,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4F41070-D4EA-45C6-935F-32C4150F43DA}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E4" xr:uid="{F4F41070-D4EA-45C6-935F-32C4150F43DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4F41070-D4EA-45C6-935F-32C4150F43DA}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E5" xr:uid="{F4F41070-D4EA-45C6-935F-32C4150F43DA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6EBC822F-331C-460F-A1AF-BDB25DFCE9D9}" name="Part" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{BA770ADA-6A11-483F-87CC-8C2C6DB2E6A7}" name="Brand/Model" dataDxfId="3"/>
@@ -792,18 +831,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -823,24 +862,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="57.75">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="101.25">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -848,36 +887,58 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
+      <c r="D4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27.75">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="5" spans="1:5" ht="27.75">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2397AD2E-0950-41E0-A85A-50CD48A76C4D}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{32CEC6AA-5609-46B8-8B61-B3C0CC2BF1B5}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{90B50038-6393-462C-B5B2-D0BF8781E0D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>